--- a/Pyradiomics/v5/results.xlsx
+++ b/Pyradiomics/v5/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sven\Documents\BEP_sbierenbroodspot_1334859\Pyradiomics\v5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8ADDAF2-C3A7-460B-A1E8-5F10EFDC24C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CAC139-D450-4052-8395-DEE9E6B9A98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-8670" windowWidth="16440" windowHeight="28320" xr2:uid="{777E7FA1-F32C-4230-B03B-2F792CBE219E}"/>
+    <workbookView xWindow="38580" yWindow="2805" windowWidth="16410" windowHeight="15345" xr2:uid="{777E7FA1-F32C-4230-B03B-2F792CBE219E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Naive</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>Anova10</t>
+  </si>
+  <si>
+    <t>Tsne 2</t>
+  </si>
+  <si>
+    <t>Tsne 3</t>
   </si>
 </sst>
 </file>
@@ -420,15 +426,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD17400-850F-4A0A-BE57-C471E9E82A33}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -436,16 +442,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -456,16 +462,16 @@
         <v>0.66210000000000002</v>
       </c>
       <c r="D2">
-        <v>0.65210000000000001</v>
+        <v>0.71099999999999997</v>
       </c>
       <c r="E2">
         <v>0.75680000000000003</v>
       </c>
-      <c r="F2">
-        <v>0.71099999999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>0.65210000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -476,16 +482,16 @@
         <v>0.54349999999999998</v>
       </c>
       <c r="D3">
-        <v>0.60899999999999999</v>
+        <v>0.72009999999999996</v>
       </c>
       <c r="E3">
         <v>0.62729999999999997</v>
       </c>
-      <c r="F3">
-        <v>0.72009999999999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>0.60899999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -496,16 +502,16 @@
         <v>0.66080000000000005</v>
       </c>
       <c r="D4">
-        <v>0.65010000000000001</v>
+        <v>0.69389999999999996</v>
       </c>
       <c r="E4">
         <v>0.66420000000000001</v>
       </c>
-      <c r="F4">
-        <v>0.69389999999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>0.65010000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -516,16 +522,16 @@
         <v>0.64759999999999995</v>
       </c>
       <c r="D5">
-        <v>0.62560000000000004</v>
+        <v>0.66779999999999995</v>
       </c>
       <c r="E5">
         <v>0.69110000000000005</v>
       </c>
-      <c r="F5">
-        <v>0.66779999999999995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>0.62560000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -536,16 +542,16 @@
         <v>0.71850000000000003</v>
       </c>
       <c r="D6">
-        <v>0.6391</v>
+        <v>0.68879999999999997</v>
       </c>
       <c r="E6">
         <v>0.72829999999999995</v>
       </c>
-      <c r="F6">
-        <v>0.68879999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>0.6391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -556,13 +562,47 @@
         <v>0.64470000000000005</v>
       </c>
       <c r="D7">
-        <v>0.66569999999999996</v>
+        <v>0.62929999999999997</v>
       </c>
       <c r="E7">
         <v>0.72370000000000001</v>
       </c>
-      <c r="F7">
-        <v>0.62929999999999997</v>
+      <c r="I7">
+        <v>0.66569999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>0.59560000000000002</v>
+      </c>
+      <c r="C9">
+        <v>0.50070000000000003</v>
+      </c>
+      <c r="D9">
+        <v>0.57809999999999995</v>
+      </c>
+      <c r="E9">
+        <v>0.51539999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0.63990000000000002</v>
+      </c>
+      <c r="C10">
+        <v>0.60780000000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.5897</v>
+      </c>
+      <c r="E10">
+        <v>0.63</v>
       </c>
     </row>
   </sheetData>
